--- a/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
+++ b/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\nscscc2023_loongarch_group_qualifier_submission\submission\LoongArch_MOU_1_zhangsan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_USTC_2_laizeyuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7BF3D-83CD-4F2E-B795-E2AAAFC05FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CE049-157F-41B2-8C79-D468DA6010E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,47 +466,47 @@
     <t>数码管显示</t>
   </si>
   <si>
-    <t>70MHz : 100MHz</t>
+    <t>22C0ED</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>6c350</t>
+    <t>5553D6</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>244e22</t>
+    <t>3DC348</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>573f6b</t>
+    <t>16FBD7</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>43d603</t>
+    <t>1EEEC8</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>193b2b</t>
+    <t>23CDA5</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>262ee2</t>
+    <t>21643C</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1f7f52</t>
+    <t>1ED11</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>24cc6c</t>
+    <t>3061AA</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1ebcc</t>
+    <t>80MHz : 100MHz</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>34d9e7</t>
+    <t>61ADE</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I18" s="20">
         <f>GEOMEAN(F22:F31)</f>
-        <v>1.2721558334067988</v>
+        <v>1.3536279516790695</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>26</v>
@@ -1317,14 +1317,14 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" ref="F22:F31" si="0">IF(HEX2DEC(D22),HEX2DEC(E22)/HEX2DEC(D22),0.1)</f>
-        <v>1.5783320096747411</v>
+        <v>1.7484441156328263</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,14 +1335,14 @@
         <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>1.3278782229044028</v>
+        <v>1.3871619102981938</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,14 +1353,14 @@
         <v>32</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
-        <v>1.5639671227050227</v>
+        <v>1.5991632364822599</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,14 +1371,14 @@
         <v>34</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>1.5069121863625945</v>
+        <v>1.6550875462733294</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,14 +1389,14 @@
         <v>36</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="0"/>
-        <v>0.73529086261231158</v>
+        <v>0.80718838609193744</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1407,14 +1407,14 @@
         <v>38</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="0"/>
-        <v>1.3610673081918341</v>
+        <v>1.6800910414718173</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,14 +1425,14 @@
         <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
-        <v>1.0070322302478913</v>
+        <v>0.88591952369688953</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,14 +1443,14 @@
         <v>42</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
-        <v>1.5749452237243886</v>
+        <v>1.7356389385966036</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,14 +1461,14 @@
         <v>44</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>1.7959650516282764</v>
+        <v>1.7913408595761537</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1479,14 +1479,14 @@
         <v>46</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>0.78847056072270483</v>
+        <v>0.86131269455298942</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
+++ b/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_USTC_2_laizeyuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CE049-157F-41B2-8C79-D468DA6010E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45F4EF-0002-4087-8A5D-EFEB7E3FA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,47 +466,47 @@
     <t>数码管显示</t>
   </si>
   <si>
-    <t>22C0ED</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>5553D6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>3DC348</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>16FBD7</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1EEEC8</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>23CDA5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>21643C</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ED11</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>3061AA</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>80MHz : 100MHz</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>61ADE</t>
+    <t>613F5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>22709E</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>4EB1F1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D84F9</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>169E7F</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D847F</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>23C3C8</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>207F45</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B108</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F8942</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I18" s="20">
         <f>GEOMEAN(F22:F31)</f>
-        <v>1.3536279516790695</v>
+        <v>1.4000046981104335</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>26</v>
@@ -1317,14 +1317,14 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" ref="F22:F31" si="0">IF(HEX2DEC(D22),HEX2DEC(E22)/HEX2DEC(D22),0.1)</f>
-        <v>1.7484441156328263</v>
+        <v>1.7562091257139272</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,14 +1335,14 @@
         <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>1.3871619102981938</v>
+        <v>1.3997972578414164</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,14 +1353,14 @@
         <v>32</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
-        <v>1.5991632364822599</v>
+        <v>1.7339402845757743</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,14 +1371,14 @@
         <v>34</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>1.6550875462733294</v>
+        <v>1.6616356672074593</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,14 +1389,14 @@
         <v>36</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="0"/>
-        <v>0.80718838609193744</v>
+        <v>0.82020039571846914</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1407,14 +1407,14 @@
         <v>38</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="0"/>
-        <v>1.6800910414718173</v>
+        <v>1.7606405498580227</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,14 +1425,14 @@
         <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
-        <v>0.88591952369688953</v>
+        <v>0.88687390139426936</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,14 +1443,14 @@
         <v>42</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
-        <v>1.7356389385966036</v>
+        <v>1.7834075914680385</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,14 +1461,14 @@
         <v>44</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>1.7913408595761537</v>
+        <v>2.0396911308364003</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1479,14 +1479,14 @@
         <v>46</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>0.86131269455298942</v>
+        <v>0.87662944214577587</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
+++ b/submission/LoongArch_USTC_2_laizeyuan/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_USTC_2_laizeyuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45F4EF-0002-4087-8A5D-EFEB7E3FA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E3CCB-1C02-40A8-AE9A-CB569843E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,47 +466,47 @@
     <t>数码管显示</t>
   </si>
   <si>
-    <t>80MHz : 100MHz</t>
+    <t>6EE6E</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>613F5</t>
+    <t>2759AB</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>22709E</t>
+    <t>59B136</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>4EB1F1</t>
+    <t>4611AD</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>3D84F9</t>
+    <t>197329</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>169E7F</t>
+    <t>21B329</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1D847F</t>
+    <t>28DDCA</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>23C3C8</t>
+    <t>250F76</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>207F45</t>
+    <t>1E8E0</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1B108</t>
+    <t>359CAC</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>2F8942</t>
+    <t>70MHz : 100MHz</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I18" s="20">
         <f>GEOMEAN(F22:F31)</f>
-        <v>1.4000046981104335</v>
+        <v>1.2315097023844928</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>26</v>
@@ -1317,14 +1317,14 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" ref="F22:F31" si="0">IF(HEX2DEC(D22),HEX2DEC(E22)/HEX2DEC(D22),0.1)</f>
-        <v>1.7562091257139272</v>
+        <v>1.5399798350702469</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,14 +1335,14 @@
         <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>1.3997972578414164</v>
+        <v>1.2251224281746307</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,14 +1353,14 @@
         <v>32</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
-        <v>1.7339402845757743</v>
+        <v>1.5213422092625641</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,14 +1371,14 @@
         <v>34</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>1.6616356672074593</v>
+        <v>1.4588877068931163</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,14 +1389,14 @@
         <v>36</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="0"/>
-        <v>0.82020039571846914</v>
+        <v>0.72897167124033424</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1407,14 +1407,14 @@
         <v>38</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="0"/>
-        <v>1.7606405498580227</v>
+        <v>1.5421382235336893</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,14 +1425,14 @@
         <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
-        <v>0.88687390139426936</v>
+        <v>0.77616011840709009</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,14 +1443,14 @@
         <v>42</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
-        <v>1.7834075914680385</v>
+        <v>1.5638165506280906</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,14 +1461,14 @@
         <v>44</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>2.0396911308364003</v>
+        <v>1.8066990539503964</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1479,14 +1479,14 @@
         <v>46</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>0.87662944214577587</v>
+        <v>0.77728121915482951</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
